--- a/src/main/webapp/content/files/precisionOncologyTherapies/precision_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/precisionOncologyTherapies/precision_oncology_therapies.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangh2/repos/oncokb-public/src/main/webapp/content/files/precisionOncologyTherapies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A5FC92-3B3D-AB4D-B065-0289B1E24785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C961D8D-F94D-AC4A-8764-EA2ED52426EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="31680" windowHeight="20200" xr2:uid="{D3CC899A-FE92-8343-9D2C-EF5EE5721116}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="31680" windowHeight="20200" activeTab="1" xr2:uid="{D3CC899A-FE92-8343-9D2C-EF5EE5721116}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Precision Oncology Therapies" sheetId="1" r:id="rId1"/>
     <sheet name="Footnotes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -407,9 +407,6 @@
     <t>KIT D816</t>
   </si>
   <si>
-    <t>a The first year the drug received FDA-approval in any indication, irrespective of biomarker</t>
-  </si>
-  <si>
     <t>Year of drug’s first FDA-approval a</t>
   </si>
   <si>
@@ -425,12 +422,6 @@
     <t>b Includes pathogeomonic and indication-specific biomarkers, that while not specifically listed in the Indications and Usage section of the FDA drug label, are targeted by the precision oncology drug (ex KIT D816 in systemic mastocytosis [avapritinib] and SMARCB1 deletion in epithelioid sarcoma [tazemetostat])</t>
   </si>
   <si>
-    <t>c If there is a corresponding FDA-approved companion diagnostic test for biomarker identification, this detection method is listed; if a DNA NGS-based detection method can be used to identify the biomarker, this is noted</t>
-  </si>
-  <si>
-    <t>d Only drugs with an FDA-specified biomarker that can be detected by an NGS-based (DNA) assay are classified</t>
-  </si>
-  <si>
     <t>e Pembrolizumab in combination with lenvatinib is FDA-approved approved for endometrial cancer that is pMMR</t>
   </si>
   <si>
@@ -443,13 +434,6 @@
     <t>First-in class = 33; Mechanistically-distinct = 7; Follow-on = 19; Resistance = 10</t>
   </si>
   <si>
-    <t>Precision oncology therapy: A drug that is most effective in a molecularly defined subset of patients and for which pre-treatment molecular profiling is required for optimal patient selection
-First-in-class precision oncology therapy: A precision oncology therapy targeting an alteration previously classified as not actionable
-Mechanistically-distinct precision oncology therapy: A precision oncology therapy targeting a previously actionable genomic alteration via a distinct mechanisms-of-action, or with significantly different selectivity versus older drugs
-Follow-on precision oncology therapy: A precision oncology therapy with a mechanism of action largely similar to a previously FDA-approved first-in-class drug
-Resistance precision oncology therapy: A precision oncology therapy with a mechanism of action largely similar to an FDA-approved first-in-class precision oncology drug, but with an expanded mutation profile that targets mutations that arise in the context of resistance to the first-in-class drug</t>
-  </si>
-  <si>
     <t>DNA/NGS-based detection or FISH</t>
   </si>
   <si>
@@ -589,13 +573,133 @@
   </si>
   <si>
     <t>DNA/HLA-typing</t>
+  </si>
+  <si>
+    <t>c If there is a corresponding FDA-cleared or -approved companion diagnostic device for biomarker identification, the detection method associated with this device is listed; if the biomarker can be detected by a DNA/NGS-based detection method this is listed first</t>
+  </si>
+  <si>
+    <t>d Only drugs with an FDA-specified biomarker that can be detected by a DNA/NGS-based detection method are classified</t>
+  </si>
+  <si>
+    <t>a The first year the drug received FDA-approval in any indication, irrespective of whether the biomarker was included in the FDA-drug at that time</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precision oncology therapy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: A drug that is most effective in a molecularly defined subset of patients and for which pre-treatment molecular profiling is required for optimal patient selection
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First-in-class precision oncology therapy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: A precision oncology therapy targeting an alteration previously classified as not actionable
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mechanistically-distinct precision oncology therapy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: A precision oncology therapy targeting a previously actionable genomic alteration via a distinct mechanisms-of-action, or with significantly different selectivity versus older drugs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Follow-on precision oncology therapy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: A precision oncology therapy with a mechanism of action largely similar to a previously FDA-approved first-in-class precision oncology drug
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resistance precision oncology therapy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A precision oncology therapy with a mechanism of action largely similar to an FDA-approved first-in-class precision oncology drug, but with an expanded mutation profile that targets mutations that arise in the context of resistance to the first-in-class drug</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -609,6 +713,14 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -961,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2443C89-2C5B-8E41-851F-81266AC48571}">
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -976,19 +1088,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1104,7 +1216,7 @@
         <v>117</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
@@ -1155,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
@@ -1186,7 +1298,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
@@ -1220,7 +1332,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>60</v>
@@ -1237,7 +1349,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
@@ -1257,7 +1369,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>27</v>
@@ -1271,7 +1383,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>60</v>
@@ -1305,13 +1417,13 @@
         <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1339,7 +1451,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>15</v>
@@ -1376,7 +1488,7 @@
         <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -1407,7 +1519,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>15</v>
@@ -1444,10 +1556,10 @@
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1464,7 +1576,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1475,13 +1587,13 @@
         <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1512,7 +1624,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>3</v>
@@ -1526,13 +1638,13 @@
         <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1543,7 +1655,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>15</v>
@@ -1577,7 +1689,7 @@
         <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>15</v>
@@ -1625,10 +1737,10 @@
         <v>2014</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>15</v>
@@ -1662,7 +1774,7 @@
         <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>15</v>
@@ -1679,7 +1791,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>15</v>
@@ -1730,7 +1842,7 @@
         <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -1764,7 +1876,7 @@
         <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -1798,7 +1910,7 @@
         <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>15</v>
@@ -1815,7 +1927,7 @@
         <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>15</v>
@@ -1849,7 +1961,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -1866,13 +1978,13 @@
         <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1900,7 +2012,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -1917,7 +2029,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>15</v>
@@ -1968,7 +2080,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>15</v>
@@ -1985,7 +2097,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>15</v>
@@ -2008,7 +2120,7 @@
         <v>52</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -2019,7 +2131,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>15</v>
@@ -2053,7 +2165,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>15</v>
@@ -2070,7 +2182,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>6</v>
@@ -2087,7 +2199,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>15</v>
@@ -2104,7 +2216,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>15</v>
@@ -2121,7 +2233,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>15</v>
@@ -2138,7 +2250,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>15</v>
@@ -2172,7 +2284,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>82</v>
@@ -2189,7 +2301,7 @@
         <v>83</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>15</v>
@@ -2206,7 +2318,7 @@
         <v>84</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>15</v>
@@ -2223,7 +2335,7 @@
         <v>85</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>15</v>
@@ -2240,7 +2352,7 @@
         <v>85</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>15</v>
@@ -2257,7 +2369,7 @@
         <v>86</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>15</v>
@@ -2274,7 +2386,7 @@
         <v>86</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>15</v>
@@ -2325,7 +2437,7 @@
         <v>87</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>15</v>
@@ -2342,7 +2454,7 @@
         <v>89</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>15</v>
@@ -2359,7 +2471,7 @@
         <v>90</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>15</v>
@@ -2393,7 +2505,7 @@
         <v>91</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>15</v>
@@ -2410,7 +2522,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>15</v>
@@ -2444,7 +2556,7 @@
         <v>94</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>15</v>
@@ -2461,7 +2573,7 @@
         <v>94</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>15</v>
@@ -2478,7 +2590,7 @@
         <v>95</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>15</v>
@@ -2501,7 +2613,7 @@
         <v>52</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -2512,7 +2624,7 @@
         <v>97</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>15</v>
@@ -2529,7 +2641,7 @@
         <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>15</v>
@@ -2546,7 +2658,7 @@
         <v>99</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>15</v>
@@ -2563,7 +2675,7 @@
         <v>99</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>15</v>
@@ -2597,7 +2709,7 @@
         <v>101</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>15</v>
@@ -2631,7 +2743,7 @@
         <v>102</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>15</v>
@@ -2648,7 +2760,7 @@
         <v>103</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
@@ -2682,7 +2794,7 @@
         <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
@@ -2699,7 +2811,7 @@
         <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
@@ -2716,7 +2828,7 @@
         <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
@@ -2733,7 +2845,7 @@
         <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
@@ -2767,7 +2879,7 @@
         <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
@@ -2784,10 +2896,10 @@
         <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D107" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E107" t="s">
         <v>7</v>
@@ -2804,7 +2916,7 @@
         <v>113</v>
       </c>
       <c r="D108" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E108" t="s">
         <v>7</v>
@@ -2828,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B8AE69-B456-4642-BA00-CD8BBEA487DC}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2837,9 +2949,9 @@
     <col min="1" max="1" width="116.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2848,7 +2960,7 @@
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2857,7 +2969,7 @@
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2866,7 +2978,7 @@
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2875,7 +2987,7 @@
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2884,16 +2996,16 @@
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2902,7 +3014,7 @@
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2911,7 +3023,7 @@
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>

--- a/src/main/webapp/content/files/precisionOncologyTherapies/precision_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/precisionOncologyTherapies/precision_oncology_therapies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangh2/repos/oncokb-public/src/main/webapp/content/files/precisionOncologyTherapies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C961D8D-F94D-AC4A-8764-EA2ED52426EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5373D263-850D-9744-A285-F7800F0703C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="31680" windowHeight="20200" activeTab="1" xr2:uid="{D3CC899A-FE92-8343-9D2C-EF5EE5721116}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="34400" windowHeight="26900" xr2:uid="{D3CC899A-FE92-8343-9D2C-EF5EE5721116}"/>
   </bookViews>
   <sheets>
     <sheet name="Precision Oncology Therapies" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="197">
   <si>
     <t>1998 – 2001*</t>
   </si>
@@ -429,9 +429,6 @@
   </si>
   <si>
     <t>NGS, Next-generation sequencing; ER, Estrogen Receptor; HR, Hormone Receptor; MSI-H, Microsatellite instability-high; HRR, Homologous Recombination Repair; TMB-H, Tumor mutational burden-high; dMMR, mismatch repair deficient; pMMR, mismatch repair proficient; PMSA, prostate-specific membrane antigen</t>
-  </si>
-  <si>
-    <t>First-in class = 33; Mechanistically-distinct = 7; Follow-on = 19; Resistance = 10</t>
   </si>
   <si>
     <t>DNA/NGS-based detection or FISH</t>
@@ -693,6 +690,58 @@
       </rPr>
       <t>: A precision oncology therapy with a mechanism of action largely similar to an FDA-approved first-in-class precision oncology drug, but with an expanded mutation profile that targets mutations that arise in the context of resistance to the first-in-class drug</t>
     </r>
+  </si>
+  <si>
+    <t>First-in class = 34; Mechanistically-distinct = 9; Follow-on = 20; Resistance = 10</t>
+  </si>
+  <si>
+    <t>KRAS and NRAS  WT,
+HER2+</t>
+  </si>
+  <si>
+    <t>DNA/NGS-based detection,
+DNA/NGS-based detection or IHC or ISH</t>
+  </si>
+  <si>
+    <t>Olutasidenib</t>
+  </si>
+  <si>
+    <t>Mirvetuximab soravtansine</t>
+  </si>
+  <si>
+    <t>Quizartinib</t>
+  </si>
+  <si>
+    <t>Sacituzumab govitecan</t>
+  </si>
+  <si>
+    <t>Elacestrant</t>
+  </si>
+  <si>
+    <t>ESR1
+Ligand-binding domain missense mutations,
+ER+/HER2-</t>
+  </si>
+  <si>
+    <t>HR+/HER2-</t>
+  </si>
+  <si>
+    <t>FLT3
+ITD</t>
+  </si>
+  <si>
+    <t>FRɑ</t>
+  </si>
+  <si>
+    <t>IDH1
+R132C/G/H/L/S</t>
+  </si>
+  <si>
+    <t>IHC or IHC + ISH</t>
+  </si>
+  <si>
+    <t>DNA/NGS-based detection, 
+IHC</t>
   </si>
 </sst>
 </file>
@@ -1071,22 +1120,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2443C89-2C5B-8E41-851F-81266AC48571}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>123</v>
       </c>
@@ -1216,7 +1265,7 @@
         <v>117</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
@@ -1267,7 +1316,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
@@ -1298,7 +1347,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
@@ -1332,7 +1381,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>60</v>
@@ -1349,7 +1398,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
@@ -1369,7 +1418,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>27</v>
@@ -1383,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>60</v>
@@ -1417,13 +1466,13 @@
         <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1451,7 +1500,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>15</v>
@@ -1488,7 +1537,7 @@
         <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -1519,7 +1568,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>15</v>
@@ -1556,10 +1605,10 @@
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1576,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1587,13 +1636,13 @@
         <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1624,7 +1673,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>3</v>
@@ -1638,13 +1687,13 @@
         <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1655,7 +1704,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>15</v>
@@ -1689,7 +1738,7 @@
         <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>15</v>
@@ -1737,10 +1786,10 @@
         <v>2014</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>15</v>
@@ -1774,7 +1823,7 @@
         <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>15</v>
@@ -1791,7 +1840,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>15</v>
@@ -1842,7 +1891,7 @@
         <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -1865,7 +1914,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1876,30 +1925,30 @@
         <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1907,16 +1956,16 @@
         <v>2015</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1924,16 +1973,16 @@
         <v>2015</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1944,10 +1993,10 @@
         <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>14</v>
@@ -1961,7 +2010,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -1970,49 +2019,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2015</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2015</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -2021,55 +2070,55 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2016</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>2017</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2077,27 +2126,27 @@
         <v>2017</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2017</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>15</v>
@@ -2106,106 +2155,106 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2017</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>2017</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>2017</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2018</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>2018</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -2213,10 +2262,10 @@
         <v>2018</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>15</v>
@@ -2225,21 +2274,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2018</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2247,10 +2296,10 @@
         <v>2018</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>15</v>
@@ -2264,16 +2313,16 @@
         <v>2018</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2281,67 +2330,67 @@
         <v>2018</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2018</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="C73" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>2019</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2352,7 +2401,7 @@
         <v>85</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>15</v>
@@ -2366,19 +2415,19 @@
         <v>2019</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>2019</v>
       </c>
@@ -2386,7 +2435,7 @@
         <v>86</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>15</v>
@@ -2395,18 +2444,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>2019</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>14</v>
@@ -2420,16 +2469,16 @@
         <v>87</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2019</v>
       </c>
@@ -2437,41 +2486,41 @@
         <v>87</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>15</v>
@@ -2480,15 +2529,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>2020</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>15</v>
@@ -2497,15 +2546,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>2020</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>15</v>
@@ -2519,10 +2568,10 @@
         <v>2020</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>15</v>
@@ -2531,21 +2580,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>2020</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2553,16 +2602,16 @@
         <v>2020</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2570,33 +2619,33 @@
         <v>2020</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>2020</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2604,16 +2653,16 @@
         <v>2020</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>140</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -2621,10 +2670,10 @@
         <v>2020</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>15</v>
@@ -2638,27 +2687,27 @@
         <v>2020</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2020</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>15</v>
@@ -2672,10 +2721,10 @@
         <v>2020</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>15</v>
@@ -2684,32 +2733,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>2020</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>15</v>
@@ -2720,19 +2769,19 @@
     </row>
     <row r="97" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2740,84 +2789,84 @@
         <v>2021</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="2" t="s">
+      <c r="C99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+    <row r="100" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>2021</v>
       </c>
-      <c r="B99" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D99" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B100" t="s">
-        <v>104</v>
+      <c r="B100" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>2021</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>2021</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2825,27 +2874,27 @@
         <v>2021</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>2021</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
@@ -2859,10 +2908,10 @@
         <v>2021</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
@@ -2871,64 +2920,179 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>2022</v>
       </c>
       <c r="B108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D109" t="s">
+        <v>176</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B110" t="s">
         <v>112</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D108" t="s">
-        <v>178</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="D110" t="s">
+        <v>177</v>
+      </c>
+      <c r="E110" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="31" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="204" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B111" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B112" t="s">
+        <v>186</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B113" t="s">
+        <v>187</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D113" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B114" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D114" t="s">
+        <v>195</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B115" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2940,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B8AE69-B456-4642-BA00-CD8BBEA487DC}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2951,7 +3115,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2969,7 +3133,7 @@
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2978,7 +3142,7 @@
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3005,7 +3169,7 @@
     </row>
     <row r="7" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3023,7 +3187,7 @@
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>

--- a/src/main/webapp/content/files/precisionOncologyTherapies/precision_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/precisionOncologyTherapies/precision_oncology_therapies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangh2/repos/oncokb-public/src/main/webapp/content/files/precisionOncologyTherapies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5373D263-850D-9744-A285-F7800F0703C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032C4C9F-1234-F34C-B879-8C6BA2F81C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="34400" windowHeight="26900" xr2:uid="{D3CC899A-FE92-8343-9D2C-EF5EE5721116}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34400" windowHeight="20200" xr2:uid="{D3CC899A-FE92-8343-9D2C-EF5EE5721116}"/>
   </bookViews>
   <sheets>
     <sheet name="Precision Oncology Therapies" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="198">
   <si>
     <t>1998 – 2001*</t>
   </si>
@@ -428,9 +428,6 @@
     <t>* The exact year of the drug’s first FDA-approval could not be determined due to absent or ambiguous data on FDA.gov website</t>
   </si>
   <si>
-    <t>NGS, Next-generation sequencing; ER, Estrogen Receptor; HR, Hormone Receptor; MSI-H, Microsatellite instability-high; HRR, Homologous Recombination Repair; TMB-H, Tumor mutational burden-high; dMMR, mismatch repair deficient; pMMR, mismatch repair proficient; PMSA, prostate-specific membrane antigen</t>
-  </si>
-  <si>
     <t>DNA/NGS-based detection or FISH</t>
   </si>
   <si>
@@ -479,9 +476,6 @@
     <t>BRCA1/2 Oncogenic Mutations</t>
   </si>
   <si>
-    <t>HRR Gene Oncogenic Mutations</t>
-  </si>
-  <si>
     <t>PD-L1 Expression</t>
   </si>
   <si>
@@ -534,9 +528,6 @@
   </si>
   <si>
     <t>BRAF V600E</t>
-  </si>
-  <si>
-    <t>FGFR1Fusions</t>
   </si>
   <si>
     <t>RET Fusions and Oncogenic Mutations</t>
@@ -742,6 +733,19 @@
   <si>
     <t>DNA/NGS-based detection, 
 IHC</t>
+  </si>
+  <si>
+    <t>ATM, BARD1, BRCA1/2, BRIP1, CDK12, CHEK1/2, FANCL, PALB2, RAD51B, RAD51C, RAD51D, and RAD54 Oncogenic Mutations</t>
+  </si>
+  <si>
+    <t>ATM, ATR, BRCA1/2, CDK12, CHEK2, FANCA, MLH1, MRE11, NBN, PALB2, and RAD51C
+Oncogenic Mutations</t>
+  </si>
+  <si>
+    <t>NGS, Next-generation sequencing; ER, Estrogen Receptor; HR, Hormone Receptor; MSI-H, Microsatellite instability-high; TMB-H, Tumor mutational burden-high; dMMR, mismatch repair deficient; pMMR, mismatch repair proficient; PMSA, prostate-specific membrane antigen</t>
+  </si>
+  <si>
+    <t>FGFR1 Fusions</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2443C89-2C5B-8E41-851F-81266AC48571}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1265,13 +1269,13 @@
         <v>117</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
@@ -1347,7 +1351,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
@@ -1381,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>60</v>
@@ -1398,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
@@ -1407,7 +1411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2006</v>
       </c>
@@ -1418,7 +1422,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>27</v>
@@ -1432,7 +1436,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>60</v>
@@ -1466,13 +1470,13 @@
         <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1492,7 +1496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2009</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>15</v>
@@ -1537,7 +1541,7 @@
         <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -1568,7 +1572,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>15</v>
@@ -1605,10 +1609,10 @@
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1625,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1636,13 +1640,13 @@
         <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1673,7 +1677,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>3</v>
@@ -1687,13 +1691,13 @@
         <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1704,7 +1708,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>15</v>
@@ -1738,7 +1742,7 @@
         <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>15</v>
@@ -1786,10 +1790,10 @@
         <v>2014</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>15</v>
@@ -1823,7 +1827,7 @@
         <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>15</v>
@@ -1832,7 +1836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -1840,7 +1844,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>15</v>
@@ -1891,7 +1895,7 @@
         <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -1942,7 +1946,7 @@
         <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -1976,7 +1980,7 @@
         <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>15</v>
@@ -1993,7 +1997,7 @@
         <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>15</v>
@@ -2027,7 +2031,7 @@
         <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -2044,13 +2048,13 @@
         <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2078,7 +2082,7 @@
         <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
@@ -2095,7 +2099,7 @@
         <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>15</v>
@@ -2146,7 +2150,7 @@
         <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>15</v>
@@ -2163,7 +2167,7 @@
         <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>15</v>
@@ -2186,7 +2190,7 @@
         <v>52</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -2197,7 +2201,7 @@
         <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>15</v>
@@ -2231,7 +2235,7 @@
         <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>15</v>
@@ -2248,7 +2252,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
@@ -2265,7 +2269,7 @@
         <v>76</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>15</v>
@@ -2282,7 +2286,7 @@
         <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>15</v>
@@ -2299,7 +2303,7 @@
         <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>15</v>
@@ -2316,7 +2320,7 @@
         <v>79</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>15</v>
@@ -2350,7 +2354,7 @@
         <v>81</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>82</v>
@@ -2359,7 +2363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>2018</v>
       </c>
@@ -2367,7 +2371,7 @@
         <v>83</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>15</v>
@@ -2378,27 +2382,27 @@
     </row>
     <row r="74" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2019</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>156</v>
@@ -2407,7 +2411,7 @@
         <v>15</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2418,7 +2422,7 @@
         <v>85</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>15</v>
@@ -2432,19 +2436,19 @@
         <v>2019</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>2019</v>
       </c>
@@ -2452,7 +2456,7 @@
         <v>86</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>15</v>
@@ -2461,24 +2465,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>2019</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2019</v>
       </c>
@@ -2486,16 +2490,16 @@
         <v>87</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>2019</v>
       </c>
@@ -2503,16 +2507,16 @@
         <v>87</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2019</v>
       </c>
@@ -2520,10 +2524,10 @@
         <v>87</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>14</v>
@@ -2531,13 +2535,13 @@
     </row>
     <row r="83" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>15</v>
@@ -2546,15 +2550,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>2020</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>15</v>
@@ -2571,7 +2575,7 @@
         <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>15</v>
@@ -2580,15 +2584,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>2020</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>15</v>
@@ -2597,15 +2601,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>2020</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>15</v>
@@ -2619,16 +2623,16 @@
         <v>2020</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2636,13 +2640,13 @@
         <v>2020</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>3</v>
@@ -2656,7 +2660,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>15</v>
@@ -2665,66 +2669,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2020</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>2020</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2020</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>2020</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>15</v>
@@ -2733,15 +2737,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>2020</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>15</v>
@@ -2750,7 +2754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>2020</v>
       </c>
@@ -2758,7 +2762,7 @@
         <v>99</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>15</v>
@@ -2772,33 +2776,33 @@
         <v>2020</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2806,16 +2810,16 @@
         <v>2021</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2826,7 +2830,7 @@
         <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>15</v>
@@ -2836,37 +2840,37 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
+      <c r="A101" s="1">
         <v>2021</v>
       </c>
-      <c r="B101" t="s">
-        <v>103</v>
+      <c r="B101" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D101" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>2021</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="D102" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2874,44 +2878,44 @@
         <v>2021</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>2021</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>2021</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
@@ -2920,15 +2924,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>2021</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
@@ -2937,15 +2941,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>2021</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="D107" t="s">
         <v>15</v>
@@ -2956,19 +2960,19 @@
     </row>
     <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2976,16 +2980,16 @@
         <v>2022</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D109" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2993,106 +2997,123 @@
         <v>2022</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="D110" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E110" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>2022</v>
       </c>
       <c r="B111" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>2022</v>
       </c>
       <c r="B112" t="s">
+        <v>182</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B113" t="s">
+        <v>183</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B115" t="s">
+        <v>185</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D115" t="s">
+        <v>192</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B116" t="s">
         <v>186</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C116" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B113" t="s">
-        <v>187</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D113" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B114" t="s">
-        <v>188</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D114" t="s">
-        <v>195</v>
-      </c>
-      <c r="E114" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B115" t="s">
-        <v>189</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E115" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3105,7 +3126,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3115,7 +3136,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3133,7 +3154,7 @@
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3142,7 +3163,7 @@
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3169,7 +3190,7 @@
     </row>
     <row r="7" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3178,7 +3199,7 @@
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3187,7 +3208,7 @@
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>

--- a/src/main/webapp/content/files/precisionOncologyTherapies/precision_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/precisionOncologyTherapies/precision_oncology_therapies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangh2/repos/oncokb-public/src/main/webapp/content/files/precisionOncologyTherapies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032C4C9F-1234-F34C-B879-8C6BA2F81C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E94F7CD-69E6-6345-AAD3-86ABA0F4355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34400" windowHeight="20200" xr2:uid="{D3CC899A-FE92-8343-9D2C-EF5EE5721116}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="17280" windowHeight="20200" xr2:uid="{D3CC899A-FE92-8343-9D2C-EF5EE5721116}"/>
   </bookViews>
   <sheets>
     <sheet name="Precision Oncology Therapies" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="200">
   <si>
     <t>1998 – 2001*</t>
   </si>
@@ -437,9 +437,6 @@
     <t>EGFR L858R and Exon 19 Deletions</t>
   </si>
   <si>
-    <t>KRAS wildtype, EGFR-expressing</t>
-  </si>
-  <si>
     <t>DNA/NGS-based detection </t>
   </si>
   <si>
@@ -543,9 +540,6 @@
   </si>
   <si>
     <t>EGFR Exon 20 Insertions</t>
-  </si>
-  <si>
-    <t>ABL1 T315I</t>
   </si>
   <si>
     <t>VHL Oncogenic Mutations</t>
@@ -709,11 +703,6 @@
     <t>Elacestrant</t>
   </si>
   <si>
-    <t>ESR1
-Ligand-binding domain missense mutations,
-ER+/HER2-</t>
-  </si>
-  <si>
     <t>HR+/HER2-</t>
   </si>
   <si>
@@ -735,17 +724,37 @@
 IHC</t>
   </si>
   <si>
-    <t>ATM, BARD1, BRCA1/2, BRIP1, CDK12, CHEK1/2, FANCL, PALB2, RAD51B, RAD51C, RAD51D, and RAD54 Oncogenic Mutations</t>
-  </si>
-  <si>
-    <t>ATM, ATR, BRCA1/2, CDK12, CHEK2, FANCA, MLH1, MRE11, NBN, PALB2, and RAD51C
+    <t>FGFR1 Fusions</t>
+  </si>
+  <si>
+    <t>NGS, Next-generation sequencing; ER, Estrogen Receptor; HR, Hormone Receptor; MSI-H, Microsatellite instability-high; TMB-H, Tumor mutational burden-high; dMMR, mismatch repair deficient; pMMR, mismatch repair proficient; PMSA, prostate-specific membrane antigen; FR, Folate Receptor; ITD, Internal Tandem Duplication</t>
+  </si>
+  <si>
+    <t>ESR1
+Ligand-binding domain missense mutations and
+ER+/HER2-</t>
+  </si>
+  <si>
+    <t>BCR-ABL1 Fusion
+and
+ABL1 T315I</t>
+  </si>
+  <si>
+    <t>KRAS and NRAS  Wildtype, and
+HER2+</t>
+  </si>
+  <si>
+    <t>ATM, ATR, BRCA1/2, CDK12, CHEK2, FANCA, MLH1, MRE11, NBN, PALB2, RAD51C
 Oncogenic Mutations</t>
   </si>
   <si>
-    <t>NGS, Next-generation sequencing; ER, Estrogen Receptor; HR, Hormone Receptor; MSI-H, Microsatellite instability-high; TMB-H, Tumor mutational burden-high; dMMR, mismatch repair deficient; pMMR, mismatch repair proficient; PMSA, prostate-specific membrane antigen</t>
-  </si>
-  <si>
-    <t>FGFR1 Fusions</t>
+    <t>ATM, BARD1, BRCA1/2, BRIP1, CDK12, CHEK1/2, FANCL, PALB2, RAD51B, RAD51C, RAD51D, RAD54 Oncogenic Mutations</t>
+  </si>
+  <si>
+    <t>KRAS Wildtype and EGFR-expressing</t>
+  </si>
+  <si>
+    <t>EGFR L858R, Exon 19 Deletions</t>
   </si>
 </sst>
 </file>
@@ -1126,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2443C89-2C5B-8E41-851F-81266AC48571}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1343,7 +1352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2003</v>
       </c>
@@ -1351,7 +1360,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
@@ -1385,7 +1394,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>60</v>
@@ -1394,7 +1403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
@@ -1402,7 +1411,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
@@ -1422,7 +1431,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>27</v>
@@ -1436,7 +1445,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>60</v>
@@ -1470,13 +1479,13 @@
         <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1504,7 +1513,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>15</v>
@@ -1541,7 +1550,7 @@
         <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -1572,7 +1581,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>15</v>
@@ -1612,7 +1621,7 @@
         <v>131</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1629,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1640,13 +1649,13 @@
         <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1691,13 +1700,13 @@
         <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1708,7 +1717,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>15</v>
@@ -1742,7 +1751,7 @@
         <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>15</v>
@@ -1790,10 +1799,10 @@
         <v>2014</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>15</v>
@@ -1827,7 +1836,7 @@
         <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>15</v>
@@ -1844,7 +1853,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>15</v>
@@ -1895,7 +1904,7 @@
         <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -1946,7 +1955,7 @@
         <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -1980,7 +1989,7 @@
         <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>15</v>
@@ -1997,7 +2006,7 @@
         <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>15</v>
@@ -2031,7 +2040,7 @@
         <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -2048,13 +2057,13 @@
         <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2082,7 +2091,7 @@
         <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
@@ -2099,7 +2108,7 @@
         <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>15</v>
@@ -2150,7 +2159,7 @@
         <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>15</v>
@@ -2167,7 +2176,7 @@
         <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>15</v>
@@ -2190,7 +2199,7 @@
         <v>52</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -2201,7 +2210,7 @@
         <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>15</v>
@@ -2235,7 +2244,7 @@
         <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>15</v>
@@ -2252,7 +2261,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
@@ -2286,7 +2295,7 @@
         <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>15</v>
@@ -2303,7 +2312,7 @@
         <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>15</v>
@@ -2320,7 +2329,7 @@
         <v>79</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>15</v>
@@ -2354,7 +2363,7 @@
         <v>81</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>82</v>
@@ -2371,7 +2380,7 @@
         <v>83</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>15</v>
@@ -2388,7 +2397,7 @@
         <v>83</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>15</v>
@@ -2405,7 +2414,7 @@
         <v>84</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>15</v>
@@ -2422,7 +2431,7 @@
         <v>85</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>15</v>
@@ -2439,7 +2448,7 @@
         <v>85</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>15</v>
@@ -2456,7 +2465,7 @@
         <v>86</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>15</v>
@@ -2473,7 +2482,7 @@
         <v>86</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>15</v>
@@ -2507,10 +2516,10 @@
         <v>87</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>14</v>
@@ -2541,7 +2550,7 @@
         <v>87</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>15</v>
@@ -2558,7 +2567,7 @@
         <v>89</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>15</v>
@@ -2575,7 +2584,7 @@
         <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>15</v>
@@ -2609,7 +2618,7 @@
         <v>91</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>15</v>
@@ -2626,7 +2635,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>15</v>
@@ -2660,7 +2669,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>15</v>
@@ -2677,7 +2686,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>15</v>
@@ -2694,7 +2703,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>15</v>
@@ -2717,7 +2726,7 @@
         <v>52</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -2728,7 +2737,7 @@
         <v>97</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>15</v>
@@ -2745,7 +2754,7 @@
         <v>98</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>15</v>
@@ -2762,7 +2771,7 @@
         <v>99</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>15</v>
@@ -2779,7 +2788,7 @@
         <v>99</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>15</v>
@@ -2805,41 +2814,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>2021</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>2021</v>
       </c>
@@ -2847,7 +2856,7 @@
         <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>15</v>
@@ -2856,7 +2865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>2021</v>
       </c>
@@ -2864,7 +2873,7 @@
         <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
@@ -2898,7 +2907,7 @@
         <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
@@ -2907,7 +2916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>2021</v>
       </c>
@@ -2915,7 +2924,7 @@
         <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
@@ -2932,7 +2941,7 @@
         <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
@@ -2941,7 +2950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>2021</v>
       </c>
@@ -2949,7 +2958,7 @@
         <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D107" t="s">
         <v>15</v>
@@ -2983,7 +2992,7 @@
         <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
@@ -3000,10 +3009,10 @@
         <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D110" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E110" t="s">
         <v>7</v>
@@ -3020,7 +3029,7 @@
         <v>113</v>
       </c>
       <c r="D111" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E111" t="s">
         <v>7</v>
@@ -3031,16 +3040,16 @@
         <v>2022</v>
       </c>
       <c r="B112" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3048,10 +3057,10 @@
         <v>2022</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>6</v>
@@ -3065,16 +3074,16 @@
         <v>2023</v>
       </c>
       <c r="B114" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -3082,13 +3091,13 @@
         <v>2020</v>
       </c>
       <c r="B115" t="s">
+        <v>183</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="D115" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E115" t="s">
         <v>7</v>
@@ -3099,13 +3108,13 @@
         <v>2023</v>
       </c>
       <c r="B116" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -3126,7 +3135,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3136,7 +3145,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3154,7 +3163,7 @@
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3163,7 +3172,7 @@
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3190,7 +3199,7 @@
     </row>
     <row r="7" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3199,7 +3208,7 @@
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3208,7 +3217,7 @@
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>

--- a/src/main/webapp/content/files/precisionOncologyTherapies/precision_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/precisionOncologyTherapies/precision_oncology_therapies.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangh2/repos/oncokb-public/src/main/webapp/content/files/precisionOncologyTherapies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A5FC92-3B3D-AB4D-B065-0289B1E24785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E94F7CD-69E6-6345-AAD3-86ABA0F4355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="31680" windowHeight="20200" xr2:uid="{D3CC899A-FE92-8343-9D2C-EF5EE5721116}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="17280" windowHeight="20200" xr2:uid="{D3CC899A-FE92-8343-9D2C-EF5EE5721116}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Precision Oncology Therapies" sheetId="1" r:id="rId1"/>
     <sheet name="Footnotes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="200">
   <si>
     <t>1998 – 2001*</t>
   </si>
@@ -407,9 +407,6 @@
     <t>KIT D816</t>
   </si>
   <si>
-    <t>a The first year the drug received FDA-approval in any indication, irrespective of biomarker</t>
-  </si>
-  <si>
     <t>Year of drug’s first FDA-approval a</t>
   </si>
   <si>
@@ -425,31 +422,12 @@
     <t>b Includes pathogeomonic and indication-specific biomarkers, that while not specifically listed in the Indications and Usage section of the FDA drug label, are targeted by the precision oncology drug (ex KIT D816 in systemic mastocytosis [avapritinib] and SMARCB1 deletion in epithelioid sarcoma [tazemetostat])</t>
   </si>
   <si>
-    <t>c If there is a corresponding FDA-approved companion diagnostic test for biomarker identification, this detection method is listed; if a DNA NGS-based detection method can be used to identify the biomarker, this is noted</t>
-  </si>
-  <si>
-    <t>d Only drugs with an FDA-specified biomarker that can be detected by an NGS-based (DNA) assay are classified</t>
-  </si>
-  <si>
     <t>e Pembrolizumab in combination with lenvatinib is FDA-approved approved for endometrial cancer that is pMMR</t>
   </si>
   <si>
     <t>* The exact year of the drug’s first FDA-approval could not be determined due to absent or ambiguous data on FDA.gov website</t>
   </si>
   <si>
-    <t>NGS, Next-generation sequencing; ER, Estrogen Receptor; HR, Hormone Receptor; MSI-H, Microsatellite instability-high; HRR, Homologous Recombination Repair; TMB-H, Tumor mutational burden-high; dMMR, mismatch repair deficient; pMMR, mismatch repair proficient; PMSA, prostate-specific membrane antigen</t>
-  </si>
-  <si>
-    <t>First-in class = 33; Mechanistically-distinct = 7; Follow-on = 19; Resistance = 10</t>
-  </si>
-  <si>
-    <t>Precision oncology therapy: A drug that is most effective in a molecularly defined subset of patients and for which pre-treatment molecular profiling is required for optimal patient selection
-First-in-class precision oncology therapy: A precision oncology therapy targeting an alteration previously classified as not actionable
-Mechanistically-distinct precision oncology therapy: A precision oncology therapy targeting a previously actionable genomic alteration via a distinct mechanisms-of-action, or with significantly different selectivity versus older drugs
-Follow-on precision oncology therapy: A precision oncology therapy with a mechanism of action largely similar to a previously FDA-approved first-in-class drug
-Resistance precision oncology therapy: A precision oncology therapy with a mechanism of action largely similar to an FDA-approved first-in-class precision oncology drug, but with an expanded mutation profile that targets mutations that arise in the context of resistance to the first-in-class drug</t>
-  </si>
-  <si>
     <t>DNA/NGS-based detection or FISH</t>
   </si>
   <si>
@@ -459,9 +437,6 @@
     <t>EGFR L858R and Exon 19 Deletions</t>
   </si>
   <si>
-    <t>KRAS wildtype, EGFR-expressing</t>
-  </si>
-  <si>
     <t>DNA/NGS-based detection </t>
   </si>
   <si>
@@ -498,9 +473,6 @@
     <t>BRCA1/2 Oncogenic Mutations</t>
   </si>
   <si>
-    <t>HRR Gene Oncogenic Mutations</t>
-  </si>
-  <si>
     <t>PD-L1 Expression</t>
   </si>
   <si>
@@ -555,9 +527,6 @@
     <t>BRAF V600E</t>
   </si>
   <si>
-    <t>FGFR1Fusions</t>
-  </si>
-  <si>
     <t>RET Fusions and Oncogenic Mutations</t>
   </si>
   <si>
@@ -573,9 +542,6 @@
     <t>EGFR Exon 20 Insertions</t>
   </si>
   <si>
-    <t>ABL1 T315I</t>
-  </si>
-  <si>
     <t>VHL Oncogenic Mutations</t>
   </si>
   <si>
@@ -589,13 +555,213 @@
   </si>
   <si>
     <t>DNA/HLA-typing</t>
+  </si>
+  <si>
+    <t>c If there is a corresponding FDA-cleared or -approved companion diagnostic device for biomarker identification, the detection method associated with this device is listed; if the biomarker can be detected by a DNA/NGS-based detection method this is listed first</t>
+  </si>
+  <si>
+    <t>d Only drugs with an FDA-specified biomarker that can be detected by a DNA/NGS-based detection method are classified</t>
+  </si>
+  <si>
+    <t>a The first year the drug received FDA-approval in any indication, irrespective of whether the biomarker was included in the FDA-drug at that time</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precision oncology therapy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: A drug that is most effective in a molecularly defined subset of patients and for which pre-treatment molecular profiling is required for optimal patient selection
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First-in-class precision oncology therapy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: A precision oncology therapy targeting an alteration previously classified as not actionable
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mechanistically-distinct precision oncology therapy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: A precision oncology therapy targeting a previously actionable genomic alteration via a distinct mechanisms-of-action, or with significantly different selectivity versus older drugs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Follow-on precision oncology therapy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: A precision oncology therapy with a mechanism of action largely similar to a previously FDA-approved first-in-class precision oncology drug
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resistance precision oncology therapy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A precision oncology therapy with a mechanism of action largely similar to an FDA-approved first-in-class precision oncology drug, but with an expanded mutation profile that targets mutations that arise in the context of resistance to the first-in-class drug</t>
+    </r>
+  </si>
+  <si>
+    <t>First-in class = 34; Mechanistically-distinct = 9; Follow-on = 20; Resistance = 10</t>
+  </si>
+  <si>
+    <t>KRAS and NRAS  WT,
+HER2+</t>
+  </si>
+  <si>
+    <t>DNA/NGS-based detection,
+DNA/NGS-based detection or IHC or ISH</t>
+  </si>
+  <si>
+    <t>Olutasidenib</t>
+  </si>
+  <si>
+    <t>Mirvetuximab soravtansine</t>
+  </si>
+  <si>
+    <t>Quizartinib</t>
+  </si>
+  <si>
+    <t>Sacituzumab govitecan</t>
+  </si>
+  <si>
+    <t>Elacestrant</t>
+  </si>
+  <si>
+    <t>HR+/HER2-</t>
+  </si>
+  <si>
+    <t>FLT3
+ITD</t>
+  </si>
+  <si>
+    <t>FRɑ</t>
+  </si>
+  <si>
+    <t>IDH1
+R132C/G/H/L/S</t>
+  </si>
+  <si>
+    <t>IHC or IHC + ISH</t>
+  </si>
+  <si>
+    <t>DNA/NGS-based detection, 
+IHC</t>
+  </si>
+  <si>
+    <t>FGFR1 Fusions</t>
+  </si>
+  <si>
+    <t>NGS, Next-generation sequencing; ER, Estrogen Receptor; HR, Hormone Receptor; MSI-H, Microsatellite instability-high; TMB-H, Tumor mutational burden-high; dMMR, mismatch repair deficient; pMMR, mismatch repair proficient; PMSA, prostate-specific membrane antigen; FR, Folate Receptor; ITD, Internal Tandem Duplication</t>
+  </si>
+  <si>
+    <t>ESR1
+Ligand-binding domain missense mutations and
+ER+/HER2-</t>
+  </si>
+  <si>
+    <t>BCR-ABL1 Fusion
+and
+ABL1 T315I</t>
+  </si>
+  <si>
+    <t>KRAS and NRAS  Wildtype, and
+HER2+</t>
+  </si>
+  <si>
+    <t>ATM, ATR, BRCA1/2, CDK12, CHEK2, FANCA, MLH1, MRE11, NBN, PALB2, RAD51C
+Oncogenic Mutations</t>
+  </si>
+  <si>
+    <t>ATM, BARD1, BRCA1/2, BRIP1, CDK12, CHEK1/2, FANCL, PALB2, RAD51B, RAD51C, RAD51D, RAD54 Oncogenic Mutations</t>
+  </si>
+  <si>
+    <t>KRAS Wildtype and EGFR-expressing</t>
+  </si>
+  <si>
+    <t>EGFR L858R, Exon 19 Deletions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -609,6 +775,14 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -959,36 +1133,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2443C89-2C5B-8E41-851F-81266AC48571}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1104,13 +1278,13 @@
         <v>117</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1329,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
@@ -1178,7 +1352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2003</v>
       </c>
@@ -1186,7 +1360,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
@@ -1220,7 +1394,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>60</v>
@@ -1229,7 +1403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
@@ -1237,7 +1411,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
@@ -1246,7 +1420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2006</v>
       </c>
@@ -1257,7 +1431,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>27</v>
@@ -1271,7 +1445,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>60</v>
@@ -1305,13 +1479,13 @@
         <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1331,7 +1505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2009</v>
       </c>
@@ -1339,7 +1513,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>15</v>
@@ -1376,7 +1550,7 @@
         <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -1407,7 +1581,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>15</v>
@@ -1444,10 +1618,10 @@
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1464,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1475,13 +1649,13 @@
         <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1512,7 +1686,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>3</v>
@@ -1526,13 +1700,13 @@
         <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1543,7 +1717,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>15</v>
@@ -1577,7 +1751,7 @@
         <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>15</v>
@@ -1625,10 +1799,10 @@
         <v>2014</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>15</v>
@@ -1662,7 +1836,7 @@
         <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>15</v>
@@ -1671,7 +1845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -1679,7 +1853,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>15</v>
@@ -1730,7 +1904,7 @@
         <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -1753,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1764,30 +1938,30 @@
         <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1795,16 +1969,16 @@
         <v>2015</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1812,16 +1986,16 @@
         <v>2015</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1832,10 +2006,10 @@
         <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>14</v>
@@ -1849,7 +2023,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -1858,49 +2032,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2015</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2015</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -1909,55 +2083,55 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2016</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>2017</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1965,27 +2139,27 @@
         <v>2017</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2017</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>15</v>
@@ -1994,106 +2168,106 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2017</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>2017</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>2017</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2018</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>2018</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -2101,10 +2275,10 @@
         <v>2018</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>15</v>
@@ -2113,21 +2287,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2018</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2135,10 +2309,10 @@
         <v>2018</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>15</v>
@@ -2152,16 +2326,16 @@
         <v>2018</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2169,61 +2343,61 @@
         <v>2018</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2018</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="C73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>15</v>
@@ -2232,21 +2406,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2019</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2254,33 +2428,33 @@
         <v>2019</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>2019</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2288,36 +2462,36 @@
         <v>2019</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>2019</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2019</v>
       </c>
@@ -2325,27 +2499,27 @@
         <v>87</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>14</v>
@@ -2353,30 +2527,30 @@
     </row>
     <row r="82" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>15</v>
@@ -2390,10 +2564,10 @@
         <v>2020</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>15</v>
@@ -2407,10 +2581,10 @@
         <v>2020</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>15</v>
@@ -2424,33 +2598,33 @@
         <v>2020</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>2020</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2458,33 +2632,33 @@
         <v>2020</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>2020</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2492,44 +2666,44 @@
         <v>2020</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2020</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>2020</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>15</v>
@@ -2538,32 +2712,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2020</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>2020</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>15</v>
@@ -2577,27 +2751,27 @@
         <v>2020</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>15</v>
@@ -2608,98 +2782,98 @@
     </row>
     <row r="97" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>2021</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B100" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B99" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D99" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B100" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B101" t="s">
-        <v>105</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D101" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>2021</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
@@ -2713,33 +2887,33 @@
         <v>2021</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>2021</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2747,10 +2921,10 @@
         <v>2021</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
@@ -2761,62 +2935,194 @@
     </row>
     <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
         <v>2022</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B109" t="s">
         <v>110</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D106" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="C109" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
         <v>2022</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B110" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D110" t="s">
+        <v>171</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" t="s">
+        <v>172</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B112" t="s">
         <v>180</v>
       </c>
-      <c r="D107" t="s">
+      <c r="C112" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B113" t="s">
         <v>181</v>
       </c>
-      <c r="E107" t="s">
+      <c r="C113" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B108" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D108" t="s">
+    <row r="114" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B114" t="s">
         <v>182</v>
       </c>
-      <c r="E108" t="s">
+      <c r="C114" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B115" t="s">
+        <v>183</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D115" t="s">
+        <v>189</v>
+      </c>
+      <c r="E115" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="31" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="204" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B116" t="s">
+        <v>184</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2829,7 +3135,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2837,9 +3143,9 @@
     <col min="1" max="1" width="116.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2848,7 +3154,7 @@
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2857,7 +3163,7 @@
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2866,7 +3172,7 @@
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2875,7 +3181,7 @@
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2884,16 +3190,16 @@
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2902,7 +3208,7 @@
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2911,7 +3217,7 @@
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
